--- a/interin_data/database_train.xlsx
+++ b/interin_data/database_train.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B555"/>
+  <dimension ref="A1:A555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,36 +437,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>disc_lat_long</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
           <t>caro</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -474,39 +460,24 @@
       <c r="A5" t="n">
         <v>0</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>0</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,31 +485,19 @@
       <c r="A10" t="n">
         <v>0</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -546,31 +505,19 @@
       <c r="A14" t="n">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>0</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="n">
         <v>2</v>
       </c>
     </row>
@@ -578,55 +525,34 @@
       <c r="A18" t="n">
         <v>0</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>0</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>0</v>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
-      </c>
-      <c r="B21" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
-      </c>
-      <c r="B22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
-      </c>
-      <c r="B23" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
-      </c>
-      <c r="B24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -634,31 +560,19 @@
       <c r="A25" t="n">
         <v>1</v>
       </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
-      </c>
-      <c r="B26" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
-      </c>
-      <c r="B27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
-      </c>
-      <c r="B28" t="n">
         <v>2</v>
       </c>
     </row>
@@ -666,39 +580,24 @@
       <c r="A29" t="n">
         <v>0</v>
       </c>
-      <c r="B29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1</v>
       </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
-      </c>
-      <c r="B31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
-      </c>
-      <c r="B32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
-      </c>
-      <c r="B33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -706,23 +605,14 @@
       <c r="A34" t="n">
         <v>0</v>
       </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
-      </c>
-      <c r="B35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
-      </c>
-      <c r="B36" t="n">
         <v>2</v>
       </c>
     </row>
@@ -730,15 +620,9 @@
       <c r="A37" t="n">
         <v>0</v>
       </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
-      </c>
-      <c r="B38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -746,79 +630,49 @@
       <c r="A39" t="n">
         <v>0</v>
       </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
-      </c>
-      <c r="B40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
-      </c>
-      <c r="B41" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
-      </c>
-      <c r="B42" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" t="n">
         <v>2</v>
       </c>
     </row>
@@ -826,31 +680,19 @@
       <c r="A49" t="n">
         <v>1</v>
       </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
-      </c>
-      <c r="B51" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
-      </c>
-      <c r="B52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -858,31 +700,19 @@
       <c r="A53" t="n">
         <v>1</v>
       </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>1</v>
       </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
-      </c>
-      <c r="B55" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
-      </c>
-      <c r="B56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -890,23 +720,14 @@
       <c r="A57" t="n">
         <v>1</v>
       </c>
-      <c r="B57" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="n">
         <v>2</v>
       </c>
     </row>
@@ -914,23 +735,14 @@
       <c r="A60" t="n">
         <v>0</v>
       </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
-      </c>
-      <c r="B62" t="n">
         <v>2</v>
       </c>
     </row>
@@ -938,23 +750,14 @@
       <c r="A63" t="n">
         <v>1</v>
       </c>
-      <c r="B63" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>1</v>
       </c>
-      <c r="B64" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
-      </c>
-      <c r="B65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -962,39 +765,24 @@
       <c r="A66" t="n">
         <v>1</v>
       </c>
-      <c r="B66" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>1</v>
       </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1</v>
-      </c>
-      <c r="B68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1</v>
-      </c>
-      <c r="B69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1</v>
-      </c>
-      <c r="B70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1002,55 +790,34 @@
       <c r="A71" t="n">
         <v>0</v>
       </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>0</v>
       </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>0</v>
       </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>0</v>
       </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1</v>
-      </c>
-      <c r="B75" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
-      </c>
-      <c r="B76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1</v>
-      </c>
-      <c r="B77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,23 +825,14 @@
       <c r="A78" t="n">
         <v>1</v>
       </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
-      </c>
-      <c r="B79" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
-      </c>
-      <c r="B80" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1082,23 +840,14 @@
       <c r="A81" t="n">
         <v>1</v>
       </c>
-      <c r="B81" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>1</v>
       </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1</v>
-      </c>
-      <c r="B83" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1106,31 +855,19 @@
       <c r="A84" t="n">
         <v>1</v>
       </c>
-      <c r="B84" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>1</v>
       </c>
-      <c r="B85" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>1</v>
       </c>
-      <c r="B86" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1</v>
-      </c>
-      <c r="B87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1138,39 +875,24 @@
       <c r="A88" t="n">
         <v>1</v>
       </c>
-      <c r="B88" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1</v>
-      </c>
-      <c r="B89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
-      </c>
-      <c r="B90" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
-      </c>
-      <c r="B91" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
-      </c>
-      <c r="B92" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1178,15 +900,9 @@
       <c r="A93" t="n">
         <v>0</v>
       </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
-      </c>
-      <c r="B94" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1194,31 +910,19 @@
       <c r="A95" t="n">
         <v>0</v>
       </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
-      </c>
-      <c r="B96" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
-      </c>
-      <c r="B97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
-      </c>
-      <c r="B98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1226,31 +930,19 @@
       <c r="A99" t="n">
         <v>1</v>
       </c>
-      <c r="B99" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>1</v>
       </c>
-      <c r="B100" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
-      </c>
-      <c r="B101" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
-      </c>
-      <c r="B102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1258,23 +950,14 @@
       <c r="A103" t="n">
         <v>1</v>
       </c>
-      <c r="B103" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
-      </c>
-      <c r="B104" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1</v>
-      </c>
-      <c r="B105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1282,23 +965,14 @@
       <c r="A106" t="n">
         <v>0</v>
       </c>
-      <c r="B106" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
-      </c>
-      <c r="B107" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
-      </c>
-      <c r="B108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,23 +980,14 @@
       <c r="A109" t="n">
         <v>0</v>
       </c>
-      <c r="B109" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>0</v>
       </c>
-      <c r="B110" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0</v>
-      </c>
-      <c r="B111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1330,55 +995,34 @@
       <c r="A112" t="n">
         <v>0</v>
       </c>
-      <c r="B112" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
-      </c>
-      <c r="B113" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0</v>
-      </c>
-      <c r="B114" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1</v>
-      </c>
-      <c r="B115" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1</v>
-      </c>
-      <c r="B116" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1</v>
-      </c>
-      <c r="B117" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1</v>
-      </c>
-      <c r="B118" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1386,31 +1030,19 @@
       <c r="A119" t="n">
         <v>1</v>
       </c>
-      <c r="B119" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1</v>
-      </c>
-      <c r="B120" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
-      </c>
-      <c r="B121" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1</v>
-      </c>
-      <c r="B122" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1418,23 +1050,14 @@
       <c r="A123" t="n">
         <v>1</v>
       </c>
-      <c r="B123" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>0</v>
       </c>
-      <c r="B124" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0</v>
-      </c>
-      <c r="B125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1442,23 +1065,14 @@
       <c r="A126" t="n">
         <v>0</v>
       </c>
-      <c r="B126" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
-      </c>
-      <c r="B127" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
-      </c>
-      <c r="B128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1466,23 +1080,14 @@
       <c r="A129" t="n">
         <v>0</v>
       </c>
-      <c r="B129" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1</v>
-      </c>
-      <c r="B130" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1</v>
-      </c>
-      <c r="B131" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1490,23 +1095,14 @@
       <c r="A132" t="n">
         <v>1</v>
       </c>
-      <c r="B132" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
-      </c>
-      <c r="B133" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>1</v>
-      </c>
-      <c r="B134" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1514,23 +1110,14 @@
       <c r="A135" t="n">
         <v>1</v>
       </c>
-      <c r="B135" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>1</v>
-      </c>
-      <c r="B136" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1</v>
-      </c>
-      <c r="B137" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1538,31 +1125,19 @@
       <c r="A138" t="n">
         <v>0</v>
       </c>
-      <c r="B138" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
         <v>0</v>
       </c>
-      <c r="B139" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
         <v>0</v>
       </c>
-      <c r="B140" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
-      </c>
-      <c r="B141" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1570,71 +1145,44 @@
       <c r="A142" t="n">
         <v>0</v>
       </c>
-      <c r="B142" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
         <v>0</v>
       </c>
-      <c r="B143" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
         <v>0</v>
       </c>
-      <c r="B144" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
-      </c>
-      <c r="B145" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0</v>
-      </c>
-      <c r="B146" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
-      </c>
-      <c r="B147" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
-      </c>
-      <c r="B148" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
-      </c>
-      <c r="B149" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
-      </c>
-      <c r="B150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,39 +1190,24 @@
       <c r="A151" t="n">
         <v>1</v>
       </c>
-      <c r="B151" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
         <v>0</v>
       </c>
-      <c r="B152" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
         <v>0</v>
       </c>
-      <c r="B153" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0</v>
-      </c>
-      <c r="B154" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>1</v>
-      </c>
-      <c r="B155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,71 +1215,44 @@
       <c r="A156" t="n">
         <v>1</v>
       </c>
-      <c r="B156" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
         <v>1</v>
       </c>
-      <c r="B157" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
         <v>0</v>
       </c>
-      <c r="B158" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
         <v>0</v>
       </c>
-      <c r="B159" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
         <v>1</v>
       </c>
-      <c r="B160" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
         <v>1</v>
       </c>
-      <c r="B161" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
         <v>1</v>
       </c>
-      <c r="B162" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1</v>
-      </c>
-      <c r="B163" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
-      </c>
-      <c r="B164" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1754,39 +1260,24 @@
       <c r="A165" t="n">
         <v>0</v>
       </c>
-      <c r="B165" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0</v>
-      </c>
-      <c r="B166" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0</v>
-      </c>
-      <c r="B167" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0</v>
-      </c>
-      <c r="B168" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0</v>
-      </c>
-      <c r="B169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,55 +1285,34 @@
       <c r="A170" t="n">
         <v>0</v>
       </c>
-      <c r="B170" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
         <v>0</v>
       </c>
-      <c r="B171" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
         <v>0</v>
       </c>
-      <c r="B172" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
         <v>0</v>
       </c>
-      <c r="B173" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
         <v>0</v>
       </c>
-      <c r="B174" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
         <v>0</v>
       </c>
-      <c r="B175" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0</v>
-      </c>
-      <c r="B176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1850,47 +1320,29 @@
       <c r="A177" t="n">
         <v>0</v>
       </c>
-      <c r="B177" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
         <v>1</v>
       </c>
-      <c r="B178" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
         <v>1</v>
       </c>
-      <c r="B179" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
         <v>1</v>
       </c>
-      <c r="B180" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
         <v>0</v>
       </c>
-      <c r="B181" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0</v>
-      </c>
-      <c r="B182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1898,103 +1350,64 @@
       <c r="A183" t="n">
         <v>1</v>
       </c>
-      <c r="B183" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
         <v>1</v>
       </c>
-      <c r="B184" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
         <v>0</v>
       </c>
-      <c r="B185" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
         <v>0</v>
       </c>
-      <c r="B186" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
         <v>0</v>
       </c>
-      <c r="B187" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
         <v>1</v>
       </c>
-      <c r="B188" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>1</v>
-      </c>
-      <c r="B189" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>1</v>
-      </c>
-      <c r="B190" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
-      </c>
-      <c r="B191" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>1</v>
-      </c>
-      <c r="B192" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0</v>
-      </c>
-      <c r="B193" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>1</v>
-      </c>
-      <c r="B194" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0</v>
-      </c>
-      <c r="B195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2002,23 +1415,14 @@
       <c r="A196" t="n">
         <v>0</v>
       </c>
-      <c r="B196" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
         <v>0</v>
       </c>
-      <c r="B197" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0</v>
-      </c>
-      <c r="B198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,23 +1430,14 @@
       <c r="A199" t="n">
         <v>0</v>
       </c>
-      <c r="B199" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
         <v>0</v>
       </c>
-      <c r="B200" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0</v>
-      </c>
-      <c r="B201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2050,31 +1445,19 @@
       <c r="A202" t="n">
         <v>0</v>
       </c>
-      <c r="B202" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0</v>
-      </c>
-      <c r="B203" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0</v>
-      </c>
-      <c r="B204" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0</v>
-      </c>
-      <c r="B205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2082,15 +1465,9 @@
       <c r="A206" t="n">
         <v>0</v>
       </c>
-      <c r="B206" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>1</v>
-      </c>
-      <c r="B207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,15 +1475,9 @@
       <c r="A208" t="n">
         <v>1</v>
       </c>
-      <c r="B208" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>1</v>
-      </c>
-      <c r="B209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2114,23 +1485,14 @@
       <c r="A210" t="n">
         <v>0</v>
       </c>
-      <c r="B210" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>1</v>
-      </c>
-      <c r="B211" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>1</v>
-      </c>
-      <c r="B212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2138,15 +1500,9 @@
       <c r="A213" t="n">
         <v>1</v>
       </c>
-      <c r="B213" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0</v>
-      </c>
-      <c r="B214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2154,39 +1510,24 @@
       <c r="A215" t="n">
         <v>0</v>
       </c>
-      <c r="B215" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0</v>
-      </c>
-      <c r="B216" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0</v>
-      </c>
-      <c r="B217" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0</v>
-      </c>
-      <c r="B218" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0</v>
-      </c>
-      <c r="B219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2194,31 +1535,19 @@
       <c r="A220" t="n">
         <v>0</v>
       </c>
-      <c r="B220" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0</v>
-      </c>
-      <c r="B221" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0</v>
-      </c>
-      <c r="B222" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0</v>
-      </c>
-      <c r="B223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2226,39 +1555,24 @@
       <c r="A224" t="n">
         <v>0</v>
       </c>
-      <c r="B224" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0</v>
-      </c>
-      <c r="B225" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0</v>
-      </c>
-      <c r="B226" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0</v>
-      </c>
-      <c r="B227" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>1</v>
-      </c>
-      <c r="B228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,15 +1580,9 @@
       <c r="A229" t="n">
         <v>1</v>
       </c>
-      <c r="B229" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0</v>
-      </c>
-      <c r="B230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2282,23 +1590,14 @@
       <c r="A231" t="n">
         <v>0</v>
       </c>
-      <c r="B231" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
         <v>0</v>
       </c>
-      <c r="B232" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0</v>
-      </c>
-      <c r="B233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2306,31 +1605,19 @@
       <c r="A234" t="n">
         <v>0</v>
       </c>
-      <c r="B234" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
         <v>0</v>
       </c>
-      <c r="B235" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
         <v>0</v>
       </c>
-      <c r="B236" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0</v>
-      </c>
-      <c r="B237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,23 +1625,14 @@
       <c r="A238" t="n">
         <v>0</v>
       </c>
-      <c r="B238" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
         <v>0</v>
       </c>
-      <c r="B239" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0</v>
-      </c>
-      <c r="B240" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2362,23 +1640,14 @@
       <c r="A241" t="n">
         <v>0</v>
       </c>
-      <c r="B241" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
         <v>0</v>
       </c>
-      <c r="B242" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0</v>
-      </c>
-      <c r="B243" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2386,63 +1655,39 @@
       <c r="A244" t="n">
         <v>0</v>
       </c>
-      <c r="B244" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
         <v>0</v>
       </c>
-      <c r="B245" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
         <v>1</v>
       </c>
-      <c r="B246" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
         <v>0</v>
       </c>
-      <c r="B247" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
         <v>0</v>
       </c>
-      <c r="B248" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0</v>
-      </c>
-      <c r="B249" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0</v>
-      </c>
-      <c r="B250" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0</v>
-      </c>
-      <c r="B251" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2450,23 +1695,14 @@
       <c r="A252" t="n">
         <v>0</v>
       </c>
-      <c r="B252" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
         <v>0</v>
       </c>
-      <c r="B253" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0</v>
-      </c>
-      <c r="B254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2474,71 +1710,44 @@
       <c r="A255" t="n">
         <v>0</v>
       </c>
-      <c r="B255" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0</v>
-      </c>
-      <c r="B256" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>1</v>
-      </c>
-      <c r="B257" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>1</v>
-      </c>
-      <c r="B258" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>1</v>
-      </c>
-      <c r="B259" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>1</v>
-      </c>
-      <c r="B260" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>1</v>
-      </c>
-      <c r="B261" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>1</v>
-      </c>
-      <c r="B262" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0</v>
-      </c>
-      <c r="B263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2546,15 +1755,9 @@
       <c r="A264" t="n">
         <v>0</v>
       </c>
-      <c r="B264" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0</v>
-      </c>
-      <c r="B265" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2562,47 +1765,29 @@
       <c r="A266" t="n">
         <v>0</v>
       </c>
-      <c r="B266" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
         <v>1</v>
       </c>
-      <c r="B267" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>1</v>
-      </c>
-      <c r="B268" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>1</v>
-      </c>
-      <c r="B269" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>1</v>
-      </c>
-      <c r="B270" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>1</v>
-      </c>
-      <c r="B271" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2610,15 +1795,9 @@
       <c r="A272" t="n">
         <v>1</v>
       </c>
-      <c r="B272" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>1</v>
-      </c>
-      <c r="B273" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2626,15 +1805,9 @@
       <c r="A274" t="n">
         <v>1</v>
       </c>
-      <c r="B274" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>1</v>
-      </c>
-      <c r="B275" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2642,23 +1815,14 @@
       <c r="A276" t="n">
         <v>0</v>
       </c>
-      <c r="B276" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
         <v>0</v>
       </c>
-      <c r="B277" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0</v>
-      </c>
-      <c r="B278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2666,23 +1830,14 @@
       <c r="A279" t="n">
         <v>0</v>
       </c>
-      <c r="B279" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
         <v>0</v>
       </c>
-      <c r="B280" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>1</v>
-      </c>
-      <c r="B281" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2690,23 +1845,14 @@
       <c r="A282" t="n">
         <v>1</v>
       </c>
-      <c r="B282" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>1</v>
-      </c>
-      <c r="B283" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>1</v>
-      </c>
-      <c r="B284" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2714,23 +1860,14 @@
       <c r="A285" t="n">
         <v>1</v>
       </c>
-      <c r="B285" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
         <v>1</v>
       </c>
-      <c r="B286" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>1</v>
-      </c>
-      <c r="B287" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2738,15 +1875,9 @@
       <c r="A288" t="n">
         <v>1</v>
       </c>
-      <c r="B288" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>1</v>
-      </c>
-      <c r="B289" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2754,23 +1885,14 @@
       <c r="A290" t="n">
         <v>1</v>
       </c>
-      <c r="B290" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
         <v>1</v>
       </c>
-      <c r="B291" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>1</v>
-      </c>
-      <c r="B292" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2778,39 +1900,24 @@
       <c r="A293" t="n">
         <v>1</v>
       </c>
-      <c r="B293" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>1</v>
-      </c>
-      <c r="B294" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>1</v>
-      </c>
-      <c r="B295" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0</v>
-      </c>
-      <c r="B296" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0</v>
-      </c>
-      <c r="B297" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2818,31 +1925,19 @@
       <c r="A298" t="n">
         <v>0</v>
       </c>
-      <c r="B298" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0</v>
-      </c>
-      <c r="B299" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0</v>
-      </c>
-      <c r="B300" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0</v>
-      </c>
-      <c r="B301" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2850,15 +1945,9 @@
       <c r="A302" t="n">
         <v>0</v>
       </c>
-      <c r="B302" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0</v>
-      </c>
-      <c r="B303" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2866,63 +1955,39 @@
       <c r="A304" t="n">
         <v>1</v>
       </c>
-      <c r="B304" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>1</v>
-      </c>
-      <c r="B305" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>1</v>
-      </c>
-      <c r="B306" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0</v>
-      </c>
-      <c r="B307" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0</v>
-      </c>
-      <c r="B308" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0</v>
-      </c>
-      <c r="B309" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0</v>
-      </c>
-      <c r="B310" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0</v>
-      </c>
-      <c r="B311" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2930,23 +1995,14 @@
       <c r="A312" t="n">
         <v>0</v>
       </c>
-      <c r="B312" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0</v>
-      </c>
-      <c r="B313" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0</v>
-      </c>
-      <c r="B314" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2954,47 +2010,29 @@
       <c r="A315" t="n">
         <v>0</v>
       </c>
-      <c r="B315" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
         <v>0</v>
       </c>
-      <c r="B316" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
         <v>0</v>
       </c>
-      <c r="B317" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
         <v>0</v>
       </c>
-      <c r="B318" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0</v>
-      </c>
-      <c r="B319" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0</v>
-      </c>
-      <c r="B320" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,63 +2040,39 @@
       <c r="A321" t="n">
         <v>0</v>
       </c>
-      <c r="B321" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
         <v>1</v>
       </c>
-      <c r="B322" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>1</v>
-      </c>
-      <c r="B323" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>1</v>
-      </c>
-      <c r="B324" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>1</v>
-      </c>
-      <c r="B325" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0</v>
-      </c>
-      <c r="B326" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0</v>
-      </c>
-      <c r="B327" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0</v>
-      </c>
-      <c r="B328" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3066,71 +2080,44 @@
       <c r="A329" t="n">
         <v>0</v>
       </c>
-      <c r="B329" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0</v>
-      </c>
-      <c r="B330" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0</v>
-      </c>
-      <c r="B331" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0</v>
-      </c>
-      <c r="B332" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0</v>
-      </c>
-      <c r="B333" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>1</v>
-      </c>
-      <c r="B334" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>1</v>
-      </c>
-      <c r="B335" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0</v>
-      </c>
-      <c r="B336" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0</v>
-      </c>
-      <c r="B337" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3138,55 +2125,34 @@
       <c r="A338" t="n">
         <v>1</v>
       </c>
-      <c r="B338" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
         <v>1</v>
       </c>
-      <c r="B339" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0</v>
-      </c>
-      <c r="B340" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0</v>
-      </c>
-      <c r="B341" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>1</v>
-      </c>
-      <c r="B342" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>1</v>
-      </c>
-      <c r="B343" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>1</v>
-      </c>
-      <c r="B344" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3194,15 +2160,9 @@
       <c r="A345" t="n">
         <v>1</v>
       </c>
-      <c r="B345" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1</v>
-      </c>
-      <c r="B346" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3210,39 +2170,24 @@
       <c r="A347" t="n">
         <v>1</v>
       </c>
-      <c r="B347" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
         <v>0</v>
       </c>
-      <c r="B348" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
         <v>0</v>
       </c>
-      <c r="B349" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0</v>
-      </c>
-      <c r="B350" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0</v>
-      </c>
-      <c r="B351" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,31 +2195,19 @@
       <c r="A352" t="n">
         <v>0</v>
       </c>
-      <c r="B352" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0</v>
-      </c>
-      <c r="B353" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>1</v>
-      </c>
-      <c r="B354" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>1</v>
-      </c>
-      <c r="B355" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3282,31 +2215,19 @@
       <c r="A356" t="n">
         <v>0</v>
       </c>
-      <c r="B356" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0</v>
-      </c>
-      <c r="B357" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0</v>
-      </c>
-      <c r="B358" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0</v>
-      </c>
-      <c r="B359" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3314,71 +2235,44 @@
       <c r="A360" t="n">
         <v>0</v>
       </c>
-      <c r="B360" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0</v>
-      </c>
-      <c r="B361" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0</v>
-      </c>
-      <c r="B362" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0</v>
-      </c>
-      <c r="B363" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0</v>
-      </c>
-      <c r="B364" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0</v>
-      </c>
-      <c r="B365" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0</v>
-      </c>
-      <c r="B366" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0</v>
-      </c>
-      <c r="B367" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0</v>
-      </c>
-      <c r="B368" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3386,95 +2280,59 @@
       <c r="A369" t="n">
         <v>0</v>
       </c>
-      <c r="B369" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
         <v>0</v>
       </c>
-      <c r="B370" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0</v>
-      </c>
-      <c r="B371" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0</v>
-      </c>
-      <c r="B372" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0</v>
-      </c>
-      <c r="B373" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0</v>
-      </c>
-      <c r="B374" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0</v>
-      </c>
-      <c r="B375" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0</v>
-      </c>
-      <c r="B376" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0</v>
-      </c>
-      <c r="B377" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0</v>
-      </c>
-      <c r="B378" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0</v>
-      </c>
-      <c r="B379" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0</v>
-      </c>
-      <c r="B380" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3482,79 +2340,49 @@
       <c r="A381" t="n">
         <v>0</v>
       </c>
-      <c r="B381" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
         <v>0</v>
       </c>
-      <c r="B382" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
         <v>0</v>
       </c>
-      <c r="B383" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0</v>
-      </c>
-      <c r="B384" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0</v>
-      </c>
-      <c r="B385" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0</v>
-      </c>
-      <c r="B386" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0</v>
-      </c>
-      <c r="B387" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0</v>
-      </c>
-      <c r="B388" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0</v>
-      </c>
-      <c r="B389" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0</v>
-      </c>
-      <c r="B390" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,39 +2390,24 @@
       <c r="A391" t="n">
         <v>1</v>
       </c>
-      <c r="B391" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
         <v>1</v>
       </c>
-      <c r="B392" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>1</v>
-      </c>
-      <c r="B393" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0</v>
-      </c>
-      <c r="B394" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0</v>
-      </c>
-      <c r="B395" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3602,15 +2415,9 @@
       <c r="A396" t="n">
         <v>0</v>
       </c>
-      <c r="B396" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0</v>
-      </c>
-      <c r="B397" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,47 +2425,29 @@
       <c r="A398" t="n">
         <v>0</v>
       </c>
-      <c r="B398" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0</v>
-      </c>
-      <c r="B399" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>1</v>
-      </c>
-      <c r="B400" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>1</v>
-      </c>
-      <c r="B401" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0</v>
-      </c>
-      <c r="B402" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0</v>
-      </c>
-      <c r="B403" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3666,39 +2455,24 @@
       <c r="A404" t="n">
         <v>0</v>
       </c>
-      <c r="B404" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0</v>
-      </c>
-      <c r="B405" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>1</v>
-      </c>
-      <c r="B406" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>1</v>
-      </c>
-      <c r="B407" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>1</v>
-      </c>
-      <c r="B408" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3706,31 +2480,19 @@
       <c r="A409" t="n">
         <v>1</v>
       </c>
-      <c r="B409" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>1</v>
-      </c>
-      <c r="B410" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>1</v>
-      </c>
-      <c r="B411" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>1</v>
-      </c>
-      <c r="B412" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3738,63 +2500,39 @@
       <c r="A413" t="n">
         <v>1</v>
       </c>
-      <c r="B413" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
         <v>1</v>
       </c>
-      <c r="B414" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>1</v>
-      </c>
-      <c r="B415" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>1</v>
-      </c>
-      <c r="B416" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0</v>
-      </c>
-      <c r="B417" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0</v>
-      </c>
-      <c r="B418" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>1</v>
-      </c>
-      <c r="B419" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>1</v>
-      </c>
-      <c r="B420" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3802,47 +2540,29 @@
       <c r="A421" t="n">
         <v>1</v>
       </c>
-      <c r="B421" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>1</v>
-      </c>
-      <c r="B422" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>1</v>
-      </c>
-      <c r="B423" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>1</v>
-      </c>
-      <c r="B424" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>1</v>
-      </c>
-      <c r="B425" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>1</v>
-      </c>
-      <c r="B426" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3850,71 +2570,44 @@
       <c r="A427" t="n">
         <v>0</v>
       </c>
-      <c r="B427" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
         <v>0</v>
       </c>
-      <c r="B428" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0</v>
-      </c>
-      <c r="B429" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0</v>
-      </c>
-      <c r="B430" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>1</v>
-      </c>
-      <c r="B431" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>1</v>
-      </c>
-      <c r="B432" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>1</v>
-      </c>
-      <c r="B433" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>1</v>
-      </c>
-      <c r="B434" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>1</v>
-      </c>
-      <c r="B435" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3922,63 +2615,39 @@
       <c r="A436" t="n">
         <v>1</v>
       </c>
-      <c r="B436" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
         <v>1</v>
       </c>
-      <c r="B437" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>1</v>
-      </c>
-      <c r="B438" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1</v>
-      </c>
-      <c r="B439" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1</v>
-      </c>
-      <c r="B440" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1</v>
-      </c>
-      <c r="B441" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1</v>
-      </c>
-      <c r="B442" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1</v>
-      </c>
-      <c r="B443" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3986,39 +2655,24 @@
       <c r="A444" t="n">
         <v>1</v>
       </c>
-      <c r="B444" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>1</v>
-      </c>
-      <c r="B445" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>1</v>
-      </c>
-      <c r="B446" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>1</v>
-      </c>
-      <c r="B447" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>1</v>
-      </c>
-      <c r="B448" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4026,15 +2680,9 @@
       <c r="A449" t="n">
         <v>1</v>
       </c>
-      <c r="B449" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1</v>
-      </c>
-      <c r="B450" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4042,39 +2690,24 @@
       <c r="A451" t="n">
         <v>0</v>
       </c>
-      <c r="B451" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>0</v>
-      </c>
-      <c r="B452" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>0</v>
-      </c>
-      <c r="B453" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0</v>
-      </c>
-      <c r="B454" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0</v>
-      </c>
-      <c r="B455" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4082,23 +2715,14 @@
       <c r="A456" t="n">
         <v>0</v>
       </c>
-      <c r="B456" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
         <v>0</v>
       </c>
-      <c r="B457" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>0</v>
-      </c>
-      <c r="B458" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,31 +2730,19 @@
       <c r="A459" t="n">
         <v>0</v>
       </c>
-      <c r="B459" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
         <v>1</v>
       </c>
-      <c r="B460" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
         <v>1</v>
       </c>
-      <c r="B461" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0</v>
-      </c>
-      <c r="B462" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4138,15 +2750,9 @@
       <c r="A463" t="n">
         <v>0</v>
       </c>
-      <c r="B463" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0</v>
-      </c>
-      <c r="B464" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,23 +2760,14 @@
       <c r="A465" t="n">
         <v>0</v>
       </c>
-      <c r="B465" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1</v>
-      </c>
-      <c r="B466" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1</v>
-      </c>
-      <c r="B467" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,63 +2775,39 @@
       <c r="A468" t="n">
         <v>1</v>
       </c>
-      <c r="B468" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
         <v>1</v>
       </c>
-      <c r="B469" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
         <v>1</v>
       </c>
-      <c r="B470" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
         <v>1</v>
       </c>
-      <c r="B471" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>1</v>
-      </c>
-      <c r="B472" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>1</v>
-      </c>
-      <c r="B473" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1</v>
-      </c>
-      <c r="B474" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>1</v>
-      </c>
-      <c r="B475" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4242,31 +2815,19 @@
       <c r="A476" t="n">
         <v>1</v>
       </c>
-      <c r="B476" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
         <v>1</v>
       </c>
-      <c r="B477" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
         <v>1</v>
       </c>
-      <c r="B478" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>1</v>
-      </c>
-      <c r="B479" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4274,23 +2835,14 @@
       <c r="A480" t="n">
         <v>1</v>
       </c>
-      <c r="B480" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
         <v>1</v>
       </c>
-      <c r="B481" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>1</v>
-      </c>
-      <c r="B482" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4298,63 +2850,39 @@
       <c r="A483" t="n">
         <v>1</v>
       </c>
-      <c r="B483" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>0</v>
-      </c>
-      <c r="B484" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>0</v>
-      </c>
-      <c r="B485" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0</v>
-      </c>
-      <c r="B486" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>0</v>
-      </c>
-      <c r="B487" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0</v>
-      </c>
-      <c r="B488" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>0</v>
-      </c>
-      <c r="B489" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>0</v>
-      </c>
-      <c r="B490" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4362,23 +2890,14 @@
       <c r="A491" t="n">
         <v>0</v>
       </c>
-      <c r="B491" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>0</v>
-      </c>
-      <c r="B492" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>0</v>
-      </c>
-      <c r="B493" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,63 +2905,39 @@
       <c r="A494" t="n">
         <v>0</v>
       </c>
-      <c r="B494" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
         <v>0</v>
       </c>
-      <c r="B495" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
         <v>0</v>
       </c>
-      <c r="B496" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0</v>
-      </c>
-      <c r="B497" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>1</v>
-      </c>
-      <c r="B498" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>1</v>
-      </c>
-      <c r="B499" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1</v>
-      </c>
-      <c r="B500" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>1</v>
-      </c>
-      <c r="B501" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,31 +2945,19 @@
       <c r="A502" t="n">
         <v>1</v>
       </c>
-      <c r="B502" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>1</v>
-      </c>
-      <c r="B503" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>1</v>
-      </c>
-      <c r="B504" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>0</v>
-      </c>
-      <c r="B505" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4482,47 +2965,29 @@
       <c r="A506" t="n">
         <v>0</v>
       </c>
-      <c r="B506" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>0</v>
-      </c>
-      <c r="B507" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>0</v>
-      </c>
-      <c r="B508" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>1</v>
-      </c>
-      <c r="B509" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>1</v>
-      </c>
-      <c r="B510" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0</v>
-      </c>
-      <c r="B511" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4530,31 +2995,19 @@
       <c r="A512" t="n">
         <v>0</v>
       </c>
-      <c r="B512" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
         <v>0</v>
       </c>
-      <c r="B513" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
         <v>0</v>
       </c>
-      <c r="B514" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>0</v>
-      </c>
-      <c r="B515" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4562,39 +3015,24 @@
       <c r="A516" t="n">
         <v>0</v>
       </c>
-      <c r="B516" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
         <v>0</v>
       </c>
-      <c r="B517" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>1</v>
-      </c>
-      <c r="B518" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>0</v>
-      </c>
-      <c r="B519" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>0</v>
-      </c>
-      <c r="B520" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4602,79 +3040,49 @@
       <c r="A521" t="n">
         <v>0</v>
       </c>
-      <c r="B521" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>0</v>
-      </c>
-      <c r="B522" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0</v>
-      </c>
-      <c r="B523" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>0</v>
-      </c>
-      <c r="B524" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>0</v>
-      </c>
-      <c r="B525" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>0</v>
-      </c>
-      <c r="B526" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0</v>
-      </c>
-      <c r="B527" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>1</v>
-      </c>
-      <c r="B528" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>1</v>
-      </c>
-      <c r="B529" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>0</v>
-      </c>
-      <c r="B530" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,31 +3090,19 @@
       <c r="A531" t="n">
         <v>1</v>
       </c>
-      <c r="B531" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>1</v>
-      </c>
-      <c r="B532" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>1</v>
-      </c>
-      <c r="B533" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>1</v>
-      </c>
-      <c r="B534" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4714,39 +3110,24 @@
       <c r="A535" t="n">
         <v>1</v>
       </c>
-      <c r="B535" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
         <v>1</v>
       </c>
-      <c r="B536" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>1</v>
-      </c>
-      <c r="B537" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>1</v>
-      </c>
-      <c r="B538" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>1</v>
-      </c>
-      <c r="B539" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4754,15 +3135,9 @@
       <c r="A540" t="n">
         <v>1</v>
       </c>
-      <c r="B540" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>1</v>
-      </c>
-      <c r="B541" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4770,23 +3145,14 @@
       <c r="A542" t="n">
         <v>1</v>
       </c>
-      <c r="B542" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>1</v>
-      </c>
-      <c r="B543" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>1</v>
-      </c>
-      <c r="B544" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4794,87 +3160,54 @@
       <c r="A545" t="n">
         <v>1</v>
       </c>
-      <c r="B545" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>1</v>
-      </c>
-      <c r="B546" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>1</v>
-      </c>
-      <c r="B547" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>1</v>
-      </c>
-      <c r="B548" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>1</v>
-      </c>
-      <c r="B549" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>1</v>
-      </c>
-      <c r="B550" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>1</v>
-      </c>
-      <c r="B551" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>1</v>
-      </c>
-      <c r="B552" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>1</v>
-      </c>
-      <c r="B553" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>0</v>
-      </c>
-      <c r="B554" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>0</v>
-      </c>
-      <c r="B555" t="n">
         <v>1</v>
       </c>
     </row>
